--- a/templete/templete.WTS.xlsx
+++ b/templete/templete.WTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mioka\AppData\Local\Temp\scp50477\data1\labTools\worksheet\version\v2.0.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mioka\AppData\Local\Temp\scp36373\data1\labTools\worksheet\version\v3.0.0\templete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3F3AF9-C513-4F45-9AF6-1095D9768ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAB1112-481B-4FAB-B91A-7142D7AF5C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="work_sheet" sheetId="1" r:id="rId1"/>
@@ -77,13 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>additional_worksheet ツールでワークシートに qc_infoシートを追加する</t>
-    <rPh sb="44" eb="46">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レポートの検体情報とTRFを比較し、検体情報に誤りがないか確認する</t>
     <rPh sb="5" eb="9">
       <t>ケンタイジョウホウ</t>
@@ -252,22 +245,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>check_progress ツールでSampleSheetとDB登録内容が一致しているかを確認する</t>
-    <rPh sb="33" eb="35">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ワークシート作成時刻</t>
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
@@ -295,19 +272,6 @@
     <t>server_backup ツールでバックアップサーバーへのデータバックアップを実施する</t>
     <rPh sb="40" eb="42">
       <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>check_progress ツールで全サンプルの解析が終了し、report.jsonとreport.pdf が作成されていることを確認する</t>
-    <rPh sb="19" eb="20">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -532,6 +496,42 @@
   </si>
   <si>
     <t>chr15:87940753</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worksheet check でSampleSheetとDB登録内容が一致しているかを確認する</t>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worksheet check で全サンプルの解析が終了し、report.jsonとreport.pdf が作成されていることを確認する</t>
+    <rPh sb="17" eb="18">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worksheet addition でワークシートに qc_infoシートを追加する</t>
+    <rPh sb="39" eb="41">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1332,8 +1332,8 @@
   </sheetPr>
   <dimension ref="B1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1355,7 +1355,7 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -1374,19 +1374,19 @@
       <c r="J2" s="64"/>
       <c r="K2" s="15"/>
       <c r="L2" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="15"/>
       <c r="P2" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="15"/>
       <c r="R2" s="63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S2" s="63"/>
       <c r="T2" s="63"/>
@@ -1434,17 +1434,17 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B5" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="17"/>
@@ -1547,7 +1547,7 @@
       <c r="Q10" s="60"/>
       <c r="R10" s="61"/>
       <c r="S10" s="57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T10" s="58"/>
     </row>
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -1574,7 +1574,7 @@
       <c r="Q11" s="37"/>
       <c r="R11" s="38"/>
       <c r="S11" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T11" s="41"/>
     </row>
@@ -1583,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -1601,7 +1601,7 @@
       <c r="Q12" s="37"/>
       <c r="R12" s="38"/>
       <c r="S12" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T12" s="41"/>
     </row>
@@ -1610,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
@@ -1628,7 +1628,7 @@
       <c r="Q13" s="37"/>
       <c r="R13" s="38"/>
       <c r="S13" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T13" s="41"/>
     </row>
@@ -1637,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
@@ -1655,7 +1655,7 @@
       <c r="Q14" s="37"/>
       <c r="R14" s="38"/>
       <c r="S14" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T14" s="41"/>
     </row>
@@ -1664,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
@@ -1682,14 +1682,14 @@
       <c r="Q15" s="37"/>
       <c r="R15" s="38"/>
       <c r="S15" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T15" s="19"/>
     </row>
     <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="26"/>
       <c r="C16" s="72" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -1699,18 +1699,18 @@
       <c r="I16" s="73"/>
       <c r="J16" s="74"/>
       <c r="K16" s="72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L16" s="73"/>
       <c r="M16" s="73"/>
       <c r="N16" s="73"/>
       <c r="O16" s="73"/>
       <c r="P16" s="75" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="75"/>
       <c r="R16" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S16" s="30"/>
       <c r="T16" s="32"/>
@@ -1718,22 +1718,22 @@
     <row r="17" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="26"/>
       <c r="C17" s="76" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="76"/>
       <c r="E17" s="76"/>
       <c r="F17" s="40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G17" s="77"/>
       <c r="H17" s="77"/>
       <c r="I17" s="77"/>
       <c r="J17" s="41"/>
       <c r="K17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L17" s="40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M17" s="77"/>
       <c r="N17" s="77"/>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="Q17" s="18"/>
       <c r="R17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S17" s="30"/>
       <c r="T17" s="32"/>
@@ -1751,22 +1751,22 @@
     <row r="18" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="26"/>
       <c r="C18" s="76" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" s="76"/>
       <c r="E18" s="76"/>
       <c r="F18" s="40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G18" s="77"/>
       <c r="H18" s="77"/>
       <c r="I18" s="77"/>
       <c r="J18" s="41"/>
       <c r="K18" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L18" s="40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M18" s="77"/>
       <c r="N18" s="77"/>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="Q18" s="18"/>
       <c r="R18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S18" s="30"/>
       <c r="T18" s="32"/>
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
@@ -1804,7 +1804,7 @@
       <c r="Q19" s="43"/>
       <c r="R19" s="44"/>
       <c r="S19" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T19" s="41"/>
     </row>
@@ -1813,7 +1813,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
@@ -1831,10 +1831,10 @@
       <c r="Q20" s="37"/>
       <c r="R20" s="38"/>
       <c r="S20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.4">
@@ -1842,7 +1842,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
@@ -1860,10 +1860,10 @@
       <c r="Q21" s="37"/>
       <c r="R21" s="38"/>
       <c r="S21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.4">
@@ -1871,7 +1871,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -1889,7 +1889,7 @@
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
       <c r="S22" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T22" s="41"/>
     </row>
@@ -1898,7 +1898,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D23" s="70"/>
       <c r="E23" s="70"/>
@@ -1916,14 +1916,14 @@
       <c r="Q23" s="70"/>
       <c r="R23" s="71"/>
       <c r="S23" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B24" s="26"/>
       <c r="C24" s="65" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24" s="66"/>
       <c r="E24" s="66"/>
@@ -1946,7 +1946,7 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B25" s="68"/>
       <c r="C25" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -1955,17 +1955,17 @@
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N25" s="27"/>
       <c r="O25" s="27"/>
       <c r="P25" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="6"/>
@@ -1977,7 +1977,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="46"/>
@@ -1995,7 +1995,7 @@
       <c r="Q26" s="46"/>
       <c r="R26" s="47"/>
       <c r="S26" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T26" s="41"/>
     </row>
@@ -2004,7 +2004,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
@@ -2022,7 +2022,7 @@
       <c r="Q27" s="46"/>
       <c r="R27" s="47"/>
       <c r="S27" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T27" s="41"/>
     </row>
@@ -2031,7 +2031,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
@@ -2049,7 +2049,7 @@
       <c r="Q28" s="46"/>
       <c r="R28" s="47"/>
       <c r="S28" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T28" s="41"/>
     </row>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B30" s="48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B35" s="48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B40" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="49"/>
       <c r="D40" s="49"/>
@@ -2523,12 +2523,12 @@
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B52" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="17"/>
       <c r="E52" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -2539,13 +2539,13 @@
       <c r="L52"/>
       <c r="M52" s="4"/>
       <c r="N52" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O52" s="18"/>
       <c r="P52" s="18"/>
       <c r="Q52" s="18"/>
       <c r="R52" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S52" s="24"/>
       <c r="T52" s="17"/>
@@ -2688,7 +2688,7 @@
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.55118110236220474" bottom="0.55118110236220474" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;LGxC-A-PR21-F01</oddFooter>
+    <oddFooter>&amp;LGxC-A-PR21-F01&amp;R版: 01</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="22" max="16383" man="1"/>
